--- a/VIDA2/data/CURITIBA.xlsx
+++ b/VIDA2/data/CURITIBA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>females</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>denounce</t>
+          <t>Attacks per female</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Attacks per female</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Denounces per female</t>
         </is>
@@ -469,22 +459,18 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>4100400003001</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4100400003001</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>1.112</v>
+        <v>8.384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.414</v>
+        <v>136.2425451998981</v>
       </c>
       <c r="E2" t="n">
-        <v>8.384</v>
-      </c>
-      <c r="F2" t="n">
-        <v>136.2425451998981</v>
-      </c>
-      <c r="G2" t="n">
         <v>50.57976190476187</v>
       </c>
     </row>
@@ -492,22 +478,18 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>4100400003002</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4100400003002</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>1.174</v>
+        <v>9.651999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.46</v>
+        <v>124.4263692963383</v>
       </c>
       <c r="E3" t="n">
-        <v>9.651999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>124.4263692963383</v>
-      </c>
-      <c r="G3" t="n">
         <v>49.221605028958</v>
       </c>
     </row>
@@ -515,22 +497,18 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>4100400003003</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4100400003003</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2.224</v>
+        <v>18.666</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>121.650806282569</v>
       </c>
       <c r="E4" t="n">
-        <v>18.666</v>
-      </c>
-      <c r="F4" t="n">
-        <v>121.650806282569</v>
-      </c>
-      <c r="G4" t="n">
         <v>43.99122571575585</v>
       </c>
     </row>
@@ -538,22 +516,18 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>4100400003004</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4100400003004</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>2.272</v>
+        <v>18.688</v>
       </c>
       <c r="D5" t="n">
-        <v>0.806</v>
+        <v>123.5324637602596</v>
       </c>
       <c r="E5" t="n">
-        <v>18.688</v>
-      </c>
-      <c r="F5" t="n">
-        <v>123.5324637602596</v>
-      </c>
-      <c r="G5" t="n">
         <v>44.12983428556197</v>
       </c>
     </row>
@@ -561,22 +535,18 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4101804003001</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4101804003001</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>1.06</v>
+        <v>9.284000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.356</v>
+        <v>116.639731544685</v>
       </c>
       <c r="E6" t="n">
-        <v>9.284000000000001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>116.639731544685</v>
-      </c>
-      <c r="G6" t="n">
         <v>40.16682010799654</v>
       </c>
     </row>
@@ -584,22 +554,18 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>4101804003002</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4101804003002</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1.086</v>
+        <v>8.286</v>
       </c>
       <c r="D7" t="n">
-        <v>0.412</v>
+        <v>141.955364080364</v>
       </c>
       <c r="E7" t="n">
-        <v>8.286</v>
-      </c>
-      <c r="F7" t="n">
-        <v>141.955364080364</v>
-      </c>
-      <c r="G7" t="n">
         <v>54.13744033744028</v>
       </c>
     </row>
@@ -607,22 +573,18 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>4101804003003</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4101804003003</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>1.154</v>
+        <v>8.593999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.42</v>
+        <v>142.2147269397269</v>
       </c>
       <c r="E8" t="n">
-        <v>8.593999999999999</v>
-      </c>
-      <c r="F8" t="n">
-        <v>142.2147269397269</v>
-      </c>
-      <c r="G8" t="n">
         <v>52.9413725163725</v>
       </c>
     </row>
@@ -630,22 +592,18 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>4101804003004</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4101804003004</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>1.26</v>
+        <v>10.198</v>
       </c>
       <c r="D9" t="n">
-        <v>0.402</v>
+        <v>130.4793811881273</v>
       </c>
       <c r="E9" t="n">
-        <v>10.198</v>
-      </c>
-      <c r="F9" t="n">
-        <v>130.4793811881273</v>
-      </c>
-      <c r="G9" t="n">
         <v>40.6395626819001</v>
       </c>
     </row>
@@ -653,22 +611,18 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>4101804003005</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4101804003005</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>1.628</v>
+        <v>12.402</v>
       </c>
       <c r="D10" t="n">
-        <v>0.608</v>
+        <v>136.5951874172169</v>
       </c>
       <c r="E10" t="n">
-        <v>12.402</v>
-      </c>
-      <c r="F10" t="n">
-        <v>136.5951874172169</v>
-      </c>
-      <c r="G10" t="n">
         <v>50.23478698504943</v>
       </c>
     </row>
@@ -676,22 +630,18 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>4101804003006</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4101804003006</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>1.712</v>
+        <v>13.7</v>
       </c>
       <c r="D11" t="n">
-        <v>0.63</v>
+        <v>128.9180043039176</v>
       </c>
       <c r="E11" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>128.9180043039176</v>
-      </c>
-      <c r="G11" t="n">
         <v>48.51225714430046</v>
       </c>
     </row>
@@ -699,22 +649,18 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>4104006003001</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4104006003001</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>7.93</v>
       </c>
       <c r="D12" t="n">
-        <v>0.33</v>
+        <v>136.6593692255456</v>
       </c>
       <c r="E12" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="F12" t="n">
-        <v>136.6593692255456</v>
-      </c>
-      <c r="G12" t="n">
         <v>43.95842490842489</v>
       </c>
     </row>
@@ -722,22 +668,18 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>4104006003002</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4104006003002</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>1.642</v>
+        <v>12.764</v>
       </c>
       <c r="D13" t="n">
-        <v>0.588</v>
+        <v>132.9382636040766</v>
       </c>
       <c r="E13" t="n">
-        <v>12.764</v>
-      </c>
-      <c r="F13" t="n">
-        <v>132.9382636040766</v>
-      </c>
-      <c r="G13" t="n">
         <v>46.3788692667916</v>
       </c>
     </row>
@@ -745,22 +687,18 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>4104204003001</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4104204003001</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>0.772</v>
+        <v>7.024</v>
       </c>
       <c r="D14" t="n">
-        <v>0.302</v>
+        <v>116.610587125293</v>
       </c>
       <c r="E14" t="n">
-        <v>7.024</v>
-      </c>
-      <c r="F14" t="n">
-        <v>116.610587125293</v>
-      </c>
-      <c r="G14" t="n">
         <v>44.4093442505207</v>
       </c>
     </row>
@@ -768,22 +706,18 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>4104204003002</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4104204003002</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>1.818</v>
+        <v>14.076</v>
       </c>
       <c r="D15" t="n">
-        <v>0.664</v>
+        <v>134.7297051981836</v>
       </c>
       <c r="E15" t="n">
-        <v>14.076</v>
-      </c>
-      <c r="F15" t="n">
-        <v>134.7297051981836</v>
-      </c>
-      <c r="G15" t="n">
         <v>49.7077299614431</v>
       </c>
     </row>
@@ -791,22 +725,18 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>4104204003003</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4104204003003</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>1.176</v>
+        <v>8.76</v>
       </c>
       <c r="D16" t="n">
-        <v>0.428</v>
+        <v>137.5475390622449</v>
       </c>
       <c r="E16" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="F16" t="n">
-        <v>137.5475390622449</v>
-      </c>
-      <c r="G16" t="n">
         <v>48.72699963435255</v>
       </c>
     </row>
@@ -814,22 +744,18 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>4104204003004</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4104204003004</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>1.904</v>
+        <v>14.634</v>
       </c>
       <c r="D17" t="n">
-        <v>0.66</v>
+        <v>134.6534019572954</v>
       </c>
       <c r="E17" t="n">
-        <v>14.634</v>
-      </c>
-      <c r="F17" t="n">
-        <v>134.6534019572954</v>
-      </c>
-      <c r="G17" t="n">
         <v>47.51889695172437</v>
       </c>
     </row>
@@ -837,22 +763,18 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>4104204003005</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4104204003005</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>1.982</v>
+        <v>15.336</v>
       </c>
       <c r="D18" t="n">
-        <v>0.704</v>
+        <v>133.9028213128137</v>
       </c>
       <c r="E18" t="n">
-        <v>15.336</v>
-      </c>
-      <c r="F18" t="n">
-        <v>133.9028213128137</v>
-      </c>
-      <c r="G18" t="n">
         <v>47.58578144454169</v>
       </c>
     </row>
@@ -860,22 +782,18 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>4104253001001</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>4104253001001</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>1.69</v>
+        <v>13.2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.61</v>
+        <v>134.5820758895911</v>
       </c>
       <c r="E19" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>134.5820758895911</v>
-      </c>
-      <c r="G19" t="n">
         <v>47.05519090397937</v>
       </c>
     </row>
@@ -883,22 +801,18 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>4105805005001</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4105805005001</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>1.372</v>
+        <v>11.006</v>
       </c>
       <c r="D20" t="n">
-        <v>0.502</v>
+        <v>134.749110822173</v>
       </c>
       <c r="E20" t="n">
-        <v>11.006</v>
-      </c>
-      <c r="F20" t="n">
-        <v>134.749110822173</v>
-      </c>
-      <c r="G20" t="n">
         <v>49.37863273338436</v>
       </c>
     </row>
@@ -906,22 +820,18 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>4105805005002</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4105805005002</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>2.036</v>
+        <v>16.608</v>
       </c>
       <c r="D21" t="n">
-        <v>0.744</v>
+        <v>128.1493185613437</v>
       </c>
       <c r="E21" t="n">
-        <v>16.608</v>
-      </c>
-      <c r="F21" t="n">
-        <v>128.1493185613437</v>
-      </c>
-      <c r="G21" t="n">
         <v>48.15142131480938</v>
       </c>
     </row>
@@ -929,22 +839,18 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>4105805005003</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4105805005003</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>0.9799599198396792</v>
+        <v>7.925851703406813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.342685370741483</v>
+        <v>133.7926101954158</v>
       </c>
       <c r="E22" t="n">
-        <v>7.925851703406813</v>
-      </c>
-      <c r="F22" t="n">
-        <v>133.7926101954158</v>
-      </c>
-      <c r="G22" t="n">
         <v>47.9093551738842</v>
       </c>
     </row>
@@ -952,22 +858,18 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>4105805005004</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4105805005004</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>1.524</v>
+        <v>11.896</v>
       </c>
       <c r="D23" t="n">
-        <v>0.552</v>
+        <v>131.2666536851521</v>
       </c>
       <c r="E23" t="n">
-        <v>11.896</v>
-      </c>
-      <c r="F23" t="n">
-        <v>131.2666536851521</v>
-      </c>
-      <c r="G23" t="n">
         <v>47.23444670224853</v>
       </c>
     </row>
@@ -975,22 +877,18 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>4105805005005</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4105805005005</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>1.688</v>
+        <v>13.366</v>
       </c>
       <c r="D24" t="n">
-        <v>0.596</v>
+        <v>129.884676476886</v>
       </c>
       <c r="E24" t="n">
-        <v>13.366</v>
-      </c>
-      <c r="F24" t="n">
-        <v>129.884676476886</v>
-      </c>
-      <c r="G24" t="n">
         <v>46.22862024717927</v>
       </c>
     </row>
@@ -998,22 +896,18 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>4105805005006</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4105805005006</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>0.972</v>
+        <v>7.998</v>
       </c>
       <c r="D25" t="n">
-        <v>0.36</v>
+        <v>128.2845127095126</v>
       </c>
       <c r="E25" t="n">
-        <v>7.998</v>
-      </c>
-      <c r="F25" t="n">
-        <v>128.2845127095126</v>
-      </c>
-      <c r="G25" t="n">
         <v>47.32319902319899</v>
       </c>
     </row>
@@ -1021,22 +915,18 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>4105805005007</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4105805005007</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>0.858</v>
+        <v>7.754</v>
       </c>
       <c r="D26" t="n">
-        <v>0.304</v>
+        <v>118.8158579982108</v>
       </c>
       <c r="E26" t="n">
-        <v>7.754</v>
-      </c>
-      <c r="F26" t="n">
-        <v>118.8158579982108</v>
-      </c>
-      <c r="G26" t="n">
         <v>42.01876815994463</v>
       </c>
     </row>
@@ -1044,22 +934,18 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>4105805005008</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4105805005008</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>1.154</v>
+        <v>9.144</v>
       </c>
       <c r="D27" t="n">
-        <v>0.378</v>
+        <v>138.1133670251317</v>
       </c>
       <c r="E27" t="n">
-        <v>9.144</v>
-      </c>
-      <c r="F27" t="n">
-        <v>138.1133670251317</v>
-      </c>
-      <c r="G27" t="n">
         <v>45.51673489908781</v>
       </c>
     </row>
@@ -1067,22 +953,18 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>4105805005009</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4105805005009</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>1.586</v>
+        <v>12.776</v>
       </c>
       <c r="D28" t="n">
-        <v>0.556</v>
+        <v>129.4707818123756</v>
       </c>
       <c r="E28" t="n">
-        <v>12.776</v>
-      </c>
-      <c r="F28" t="n">
-        <v>129.4707818123756</v>
-      </c>
-      <c r="G28" t="n">
         <v>46.78720531835013</v>
       </c>
     </row>
@@ -1090,22 +972,18 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>4105805005010</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4105805005010</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>0.876</v>
+        <v>7.528</v>
       </c>
       <c r="D29" t="n">
-        <v>0.344</v>
+        <v>126.2015257188631</v>
       </c>
       <c r="E29" t="n">
-        <v>7.528</v>
-      </c>
-      <c r="F29" t="n">
-        <v>126.2015257188631</v>
-      </c>
-      <c r="G29" t="n">
         <v>48.58227470843567</v>
       </c>
     </row>
@@ -1113,22 +991,18 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>4105805005011</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4105805005011</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>1.074</v>
+        <v>9.284000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.41</v>
+        <v>123.3380157424275</v>
       </c>
       <c r="E30" t="n">
-        <v>9.284000000000001</v>
-      </c>
-      <c r="F30" t="n">
-        <v>123.3380157424275</v>
-      </c>
-      <c r="G30" t="n">
         <v>45.57107500342793</v>
       </c>
     </row>
@@ -1136,22 +1010,18 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>4106902005001</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4106902005001</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>1.872</v>
+        <v>14.148</v>
       </c>
       <c r="D31" t="n">
-        <v>0.654</v>
+        <v>137.1354788949303</v>
       </c>
       <c r="E31" t="n">
-        <v>14.148</v>
-      </c>
-      <c r="F31" t="n">
-        <v>137.1354788949303</v>
-      </c>
-      <c r="G31" t="n">
         <v>47.93973305352361</v>
       </c>
     </row>
@@ -1159,22 +1029,18 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>4106902005002</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4106902005002</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>2.644</v>
+        <v>22.912</v>
       </c>
       <c r="D32" t="n">
-        <v>0.96</v>
+        <v>116.6850756807458</v>
       </c>
       <c r="E32" t="n">
-        <v>22.912</v>
-      </c>
-      <c r="F32" t="n">
-        <v>116.6850756807458</v>
-      </c>
-      <c r="G32" t="n">
         <v>43.18775979609661</v>
       </c>
     </row>
@@ -1182,22 +1048,18 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>4106902005003</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4106902005003</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>1.222</v>
+        <v>9.688000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.444</v>
+        <v>137.6275778143425</v>
       </c>
       <c r="E33" t="n">
-        <v>9.688000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>137.6275778143425</v>
-      </c>
-      <c r="G33" t="n">
         <v>48.84300911506793</v>
       </c>
     </row>
@@ -1205,22 +1067,18 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>4106902005004</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4106902005004</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>2.058</v>
+        <v>16.822</v>
       </c>
       <c r="D34" t="n">
-        <v>0.744</v>
+        <v>124.9037228870474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.822</v>
-      </c>
-      <c r="F34" t="n">
-        <v>124.9037228870474</v>
-      </c>
-      <c r="G34" t="n">
         <v>45.12220637899637</v>
       </c>
     </row>
@@ -1228,22 +1086,18 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>4106902005005</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4106902005005</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>1.482</v>
+        <v>13.112</v>
       </c>
       <c r="D35" t="n">
-        <v>0.544</v>
+        <v>118.7133958920336</v>
       </c>
       <c r="E35" t="n">
-        <v>13.112</v>
-      </c>
-      <c r="F35" t="n">
-        <v>118.7133958920336</v>
-      </c>
-      <c r="G35" t="n">
         <v>44.02691967475248</v>
       </c>
     </row>
@@ -1251,22 +1105,18 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>4106902005006</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4106902005006</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>1.626</v>
+        <v>14.366</v>
       </c>
       <c r="D36" t="n">
-        <v>0.614</v>
+        <v>116.7124939711579</v>
       </c>
       <c r="E36" t="n">
-        <v>14.366</v>
-      </c>
-      <c r="F36" t="n">
-        <v>116.7124939711579</v>
-      </c>
-      <c r="G36" t="n">
         <v>43.26175591567163</v>
       </c>
     </row>
@@ -1274,22 +1124,18 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>4106902005007</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4106902005007</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>2.022</v>
+        <v>15.278</v>
       </c>
       <c r="D37" t="n">
-        <v>0.73</v>
+        <v>136.4395778144621</v>
       </c>
       <c r="E37" t="n">
-        <v>15.278</v>
-      </c>
-      <c r="F37" t="n">
-        <v>136.4395778144621</v>
-      </c>
-      <c r="G37" t="n">
         <v>49.59092755046112</v>
       </c>
     </row>
@@ -1297,22 +1143,18 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>4106902005008</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4106902005008</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>2.158</v>
+        <v>17.972</v>
       </c>
       <c r="D38" t="n">
-        <v>0.772</v>
+        <v>123.7129275863596</v>
       </c>
       <c r="E38" t="n">
-        <v>17.972</v>
-      </c>
-      <c r="F38" t="n">
-        <v>123.7129275863596</v>
-      </c>
-      <c r="G38" t="n">
         <v>44.16645036745565</v>
       </c>
     </row>
@@ -1320,22 +1162,18 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>4106902005009</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4106902005009</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>2.576</v>
+        <v>20.698</v>
       </c>
       <c r="D39" t="n">
-        <v>0.928</v>
+        <v>127.6286328704128</v>
       </c>
       <c r="E39" t="n">
-        <v>20.698</v>
-      </c>
-      <c r="F39" t="n">
-        <v>127.6286328704128</v>
-      </c>
-      <c r="G39" t="n">
         <v>46.01820493535242</v>
       </c>
     </row>
@@ -1343,22 +1181,18 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>4106902005010</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4106902005010</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>1.724</v>
+        <v>14.182</v>
       </c>
       <c r="D40" t="n">
-        <v>0.588</v>
+        <v>124.6062644843107</v>
       </c>
       <c r="E40" t="n">
-        <v>14.182</v>
-      </c>
-      <c r="F40" t="n">
-        <v>124.6062644843107</v>
-      </c>
-      <c r="G40" t="n">
         <v>42.54639568079129</v>
       </c>
     </row>
@@ -1366,22 +1200,18 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>4106902005011</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4106902005011</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>2.228</v>
+        <v>18.256</v>
       </c>
       <c r="D41" t="n">
-        <v>0.826</v>
+        <v>126.94415596188</v>
       </c>
       <c r="E41" t="n">
-        <v>18.256</v>
-      </c>
-      <c r="F41" t="n">
-        <v>126.94415596188</v>
-      </c>
-      <c r="G41" t="n">
         <v>46.72822862815121</v>
       </c>
     </row>
@@ -1389,22 +1219,18 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>4106902005012</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4106902005012</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>1.938</v>
+        <v>15.714</v>
       </c>
       <c r="D42" t="n">
-        <v>0.714</v>
+        <v>126.8110710322925</v>
       </c>
       <c r="E42" t="n">
-        <v>15.714</v>
-      </c>
-      <c r="F42" t="n">
-        <v>126.8110710322925</v>
-      </c>
-      <c r="G42" t="n">
         <v>46.92061752788084</v>
       </c>
     </row>
@@ -1412,22 +1238,18 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>4106902005013</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>4106902005013</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>1.602</v>
+        <v>13.33</v>
       </c>
       <c r="D43" t="n">
-        <v>0.554</v>
+        <v>127.1559636778172</v>
       </c>
       <c r="E43" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="F43" t="n">
-        <v>127.1559636778172</v>
-      </c>
-      <c r="G43" t="n">
         <v>42.53948603556891</v>
       </c>
     </row>
@@ -1435,22 +1257,18 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>4106902005014</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4106902005014</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>2.474</v>
+        <v>21.612</v>
       </c>
       <c r="D44" t="n">
-        <v>0.908</v>
+        <v>117.0377449557784</v>
       </c>
       <c r="E44" t="n">
-        <v>21.612</v>
-      </c>
-      <c r="F44" t="n">
-        <v>117.0377449557784</v>
-      </c>
-      <c r="G44" t="n">
         <v>42.71516169477709</v>
       </c>
     </row>
@@ -1458,22 +1276,18 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>4106902005015</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4106902005015</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>3.37</v>
+        <v>25.82</v>
       </c>
       <c r="D45" t="n">
-        <v>1.206</v>
+        <v>133.1505215364776</v>
       </c>
       <c r="E45" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="F45" t="n">
-        <v>133.1505215364776</v>
-      </c>
-      <c r="G45" t="n">
         <v>47.29611163730066</v>
       </c>
     </row>
@@ -1481,22 +1295,18 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>4106902005016</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4106902005016</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>1.976</v>
+        <v>15.878</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6919999999999999</v>
+        <v>127.8919842556301</v>
       </c>
       <c r="E46" t="n">
-        <v>15.878</v>
-      </c>
-      <c r="F46" t="n">
-        <v>127.8919842556301</v>
-      </c>
-      <c r="G46" t="n">
         <v>44.04326906562872</v>
       </c>
     </row>
@@ -1504,22 +1314,18 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>4106902005017</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4106902005017</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>2.454</v>
+        <v>20.676</v>
       </c>
       <c r="D47" t="n">
-        <v>0.888</v>
+        <v>120.6793009199116</v>
       </c>
       <c r="E47" t="n">
-        <v>20.676</v>
-      </c>
-      <c r="F47" t="n">
-        <v>120.6793009199116</v>
-      </c>
-      <c r="G47" t="n">
         <v>44.0316094563853</v>
       </c>
     </row>
@@ -1527,22 +1333,18 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>4106902005018</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4106902005018</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>2.344</v>
+        <v>18.326</v>
       </c>
       <c r="D48" t="n">
-        <v>0.822</v>
+        <v>131.869098378421</v>
       </c>
       <c r="E48" t="n">
-        <v>18.326</v>
-      </c>
-      <c r="F48" t="n">
-        <v>131.869098378421</v>
-      </c>
-      <c r="G48" t="n">
         <v>46.68228362737149</v>
       </c>
     </row>
@@ -1550,22 +1352,18 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>4106902005019</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4106902005019</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>1.688</v>
+        <v>15.052</v>
       </c>
       <c r="D49" t="n">
-        <v>0.652</v>
+        <v>116.0460648441809</v>
       </c>
       <c r="E49" t="n">
-        <v>15.052</v>
-      </c>
-      <c r="F49" t="n">
-        <v>116.0460648441809</v>
-      </c>
-      <c r="G49" t="n">
         <v>44.27578013599347</v>
       </c>
     </row>
@@ -1573,22 +1371,18 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>4106902005020</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4106902005020</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>2.222</v>
+        <v>17.672</v>
       </c>
       <c r="D50" t="n">
-        <v>0.824</v>
+        <v>129.4439154446955</v>
       </c>
       <c r="E50" t="n">
-        <v>17.672</v>
-      </c>
-      <c r="F50" t="n">
-        <v>129.4439154446955</v>
-      </c>
-      <c r="G50" t="n">
         <v>48.31338953170289</v>
       </c>
     </row>
@@ -1596,22 +1390,18 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>4106902005021</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4106902005021</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>2.166</v>
+        <v>17.194</v>
       </c>
       <c r="D51" t="n">
-        <v>0.792</v>
+        <v>129.6064797743515</v>
       </c>
       <c r="E51" t="n">
-        <v>17.194</v>
-      </c>
-      <c r="F51" t="n">
-        <v>129.6064797743515</v>
-      </c>
-      <c r="G51" t="n">
         <v>48.30142809411815</v>
       </c>
     </row>
@@ -1619,22 +1409,18 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>4106902005022</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4106902005022</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>2.182</v>
+        <v>18.254</v>
       </c>
       <c r="D52" t="n">
-        <v>0.778</v>
+        <v>123.3898268471016</v>
       </c>
       <c r="E52" t="n">
-        <v>18.254</v>
-      </c>
-      <c r="F52" t="n">
-        <v>123.3898268471016</v>
-      </c>
-      <c r="G52" t="n">
         <v>44.03860943436794</v>
       </c>
     </row>
@@ -1642,22 +1428,18 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>4106902005023</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4106902005023</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>2.314</v>
+        <v>19.682</v>
       </c>
       <c r="D53" t="n">
-        <v>0.796</v>
+        <v>119.728085727454</v>
       </c>
       <c r="E53" t="n">
-        <v>19.682</v>
-      </c>
-      <c r="F53" t="n">
-        <v>119.728085727454</v>
-      </c>
-      <c r="G53" t="n">
         <v>41.52015873179232</v>
       </c>
     </row>
@@ -1665,22 +1447,18 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>4106902005024</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4106902005024</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>2.388</v>
+        <v>19.784</v>
       </c>
       <c r="D54" t="n">
-        <v>0.842</v>
+        <v>122.9729231622347</v>
       </c>
       <c r="E54" t="n">
-        <v>19.784</v>
-      </c>
-      <c r="F54" t="n">
-        <v>122.9729231622347</v>
-      </c>
-      <c r="G54" t="n">
         <v>43.65480417511159</v>
       </c>
     </row>
@@ -1688,22 +1466,18 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>4106902005025</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>4106902005025</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>2.354</v>
+        <v>18.126</v>
       </c>
       <c r="D55" t="n">
-        <v>0.788</v>
+        <v>134.5827069967627</v>
       </c>
       <c r="E55" t="n">
-        <v>18.126</v>
-      </c>
-      <c r="F55" t="n">
-        <v>134.5827069967627</v>
-      </c>
-      <c r="G55" t="n">
         <v>44.61841116300921</v>
       </c>
     </row>
@@ -1711,22 +1485,18 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>4106902005026</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4106902005026</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>2.172</v>
+        <v>17.794</v>
       </c>
       <c r="D56" t="n">
-        <v>0.798</v>
+        <v>126.4390222552998</v>
       </c>
       <c r="E56" t="n">
-        <v>17.794</v>
-      </c>
-      <c r="F56" t="n">
-        <v>126.4390222552998</v>
-      </c>
-      <c r="G56" t="n">
         <v>46.89204948910258</v>
       </c>
     </row>
@@ -1734,22 +1504,18 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>4106902005027</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4106902005027</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>1.914</v>
+        <v>15.564</v>
       </c>
       <c r="D57" t="n">
-        <v>0.67</v>
+        <v>127.3004046474009</v>
       </c>
       <c r="E57" t="n">
-        <v>15.564</v>
-      </c>
-      <c r="F57" t="n">
-        <v>127.3004046474009</v>
-      </c>
-      <c r="G57" t="n">
         <v>43.97544317066995</v>
       </c>
     </row>
@@ -1757,22 +1523,18 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>4106902005028</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4106902005028</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>2.124</v>
+        <v>16.132</v>
       </c>
       <c r="D58" t="n">
-        <v>0.76</v>
+        <v>134.8703245472016</v>
       </c>
       <c r="E58" t="n">
-        <v>16.132</v>
-      </c>
-      <c r="F58" t="n">
-        <v>134.8703245472016</v>
-      </c>
-      <c r="G58" t="n">
         <v>49.1236552599522</v>
       </c>
     </row>
@@ -1780,22 +1542,18 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>4106902005029</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4106902005029</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>1.758</v>
+        <v>13.69</v>
       </c>
       <c r="D59" t="n">
-        <v>0.636</v>
+        <v>129.8381823740789</v>
       </c>
       <c r="E59" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="F59" t="n">
-        <v>129.8381823740789</v>
-      </c>
-      <c r="G59" t="n">
         <v>46.35214210454146</v>
       </c>
     </row>
@@ -1803,22 +1561,18 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>4106902005030</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4106902005030</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>1.622</v>
+        <v>13.464</v>
       </c>
       <c r="D60" t="n">
-        <v>0.596</v>
+        <v>127.3348189139797</v>
       </c>
       <c r="E60" t="n">
-        <v>13.464</v>
-      </c>
-      <c r="F60" t="n">
-        <v>127.3348189139797</v>
-      </c>
-      <c r="G60" t="n">
         <v>46.93689651728145</v>
       </c>
     </row>
@@ -1826,22 +1580,18 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>4106902005031</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4106902005031</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>1.856</v>
+        <v>16.44</v>
       </c>
       <c r="D61" t="n">
-        <v>0.696</v>
+        <v>115.467539172962</v>
       </c>
       <c r="E61" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="F61" t="n">
-        <v>115.467539172962</v>
-      </c>
-      <c r="G61" t="n">
         <v>43.67175904869758</v>
       </c>
     </row>
@@ -1849,22 +1599,18 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>4106902005032</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4106902005032</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>2.238</v>
+        <v>17.258</v>
       </c>
       <c r="D62" t="n">
-        <v>0.834</v>
+        <v>132.0020392057676</v>
       </c>
       <c r="E62" t="n">
-        <v>17.258</v>
-      </c>
-      <c r="F62" t="n">
-        <v>132.0020392057676</v>
-      </c>
-      <c r="G62" t="n">
         <v>49.41756531747111</v>
       </c>
     </row>
@@ -1872,22 +1618,18 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>4106902005033</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4106902005033</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>2.05</v>
+        <v>15.582</v>
       </c>
       <c r="D63" t="n">
-        <v>0.706</v>
+        <v>136.1095362558113</v>
       </c>
       <c r="E63" t="n">
-        <v>15.582</v>
-      </c>
-      <c r="F63" t="n">
-        <v>136.1095362558113</v>
-      </c>
-      <c r="G63" t="n">
         <v>46.41735751777957</v>
       </c>
     </row>
@@ -1895,22 +1637,18 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>4106902005034</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4106902005034</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>1.832</v>
+        <v>14.476</v>
       </c>
       <c r="D64" t="n">
-        <v>0.62</v>
+        <v>130.4819898275747</v>
       </c>
       <c r="E64" t="n">
-        <v>14.476</v>
-      </c>
-      <c r="F64" t="n">
-        <v>130.4819898275747</v>
-      </c>
-      <c r="G64" t="n">
         <v>43.68757953465246</v>
       </c>
     </row>
@@ -1918,22 +1656,18 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>4106902005035</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4106902005035</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>1.634</v>
+        <v>13.978</v>
       </c>
       <c r="D65" t="n">
-        <v>0.578</v>
+        <v>121.1658202107342</v>
       </c>
       <c r="E65" t="n">
-        <v>13.978</v>
-      </c>
-      <c r="F65" t="n">
-        <v>121.1658202107342</v>
-      </c>
-      <c r="G65" t="n">
         <v>42.79428166440282</v>
       </c>
     </row>
@@ -1941,22 +1675,18 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>4106902005036</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4106902005036</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>2.768</v>
+        <v>24.142</v>
       </c>
       <c r="D66" t="n">
-        <v>0.95</v>
+        <v>118.5570118910537</v>
       </c>
       <c r="E66" t="n">
-        <v>24.142</v>
-      </c>
-      <c r="F66" t="n">
-        <v>118.5570118910537</v>
-      </c>
-      <c r="G66" t="n">
         <v>40.43920882846833</v>
       </c>
     </row>
@@ -1964,22 +1694,18 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>4106902005037</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4106902005037</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>2.178</v>
+        <v>16.214</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8120000000000001</v>
+        <v>138.9227182577256</v>
       </c>
       <c r="E67" t="n">
-        <v>16.214</v>
-      </c>
-      <c r="F67" t="n">
-        <v>138.9227182577256</v>
-      </c>
-      <c r="G67" t="n">
         <v>52.36993729462516</v>
       </c>
     </row>
@@ -1987,22 +1713,18 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>4106902005038</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4106902005038</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>1.812</v>
+        <v>15.494</v>
       </c>
       <c r="D68" t="n">
-        <v>0.68</v>
+        <v>122.1466816379452</v>
       </c>
       <c r="E68" t="n">
-        <v>15.494</v>
-      </c>
-      <c r="F68" t="n">
-        <v>122.1466816379452</v>
-      </c>
-      <c r="G68" t="n">
         <v>45.38146379849572</v>
       </c>
     </row>
@@ -2010,22 +1732,18 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>4106902005039</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4106902005039</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>3.084</v>
+        <v>24.626</v>
       </c>
       <c r="D69" t="n">
-        <v>1.09</v>
+        <v>128.1947540461381</v>
       </c>
       <c r="E69" t="n">
-        <v>24.626</v>
-      </c>
-      <c r="F69" t="n">
-        <v>128.1947540461381</v>
-      </c>
-      <c r="G69" t="n">
         <v>45.55202310756646</v>
       </c>
     </row>
@@ -2033,22 +1751,18 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>4106902005040</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>4106902005040</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>2.572</v>
+        <v>20.132</v>
       </c>
       <c r="D70" t="n">
-        <v>0.926</v>
+        <v>131.7908123223847</v>
       </c>
       <c r="E70" t="n">
-        <v>20.132</v>
-      </c>
-      <c r="F70" t="n">
-        <v>131.7908123223847</v>
-      </c>
-      <c r="G70" t="n">
         <v>47.70979605955186</v>
       </c>
     </row>
@@ -2056,22 +1770,18 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>4106902005041</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>4106902005041</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>3.59</v>
+        <v>28.354</v>
       </c>
       <c r="D71" t="n">
-        <v>1.254</v>
+        <v>128.3160368638264</v>
       </c>
       <c r="E71" t="n">
-        <v>28.354</v>
-      </c>
-      <c r="F71" t="n">
-        <v>128.3160368638264</v>
-      </c>
-      <c r="G71" t="n">
         <v>44.93858103819015</v>
       </c>
     </row>
@@ -2079,22 +1789,18 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>4106902005042</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4106902005042</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>2.018</v>
+        <v>16.144</v>
       </c>
       <c r="D72" t="n">
-        <v>0.708</v>
+        <v>127.3649684513308</v>
       </c>
       <c r="E72" t="n">
-        <v>16.144</v>
-      </c>
-      <c r="F72" t="n">
-        <v>127.3649684513308</v>
-      </c>
-      <c r="G72" t="n">
         <v>45.44708053429431</v>
       </c>
     </row>
@@ -2102,22 +1808,18 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>4106902005043</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4106902005043</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>1.808</v>
+        <v>15.582</v>
       </c>
       <c r="D73" t="n">
-        <v>0.636</v>
+        <v>118.0567967260301</v>
       </c>
       <c r="E73" t="n">
-        <v>15.582</v>
-      </c>
-      <c r="F73" t="n">
-        <v>118.0567967260301</v>
-      </c>
-      <c r="G73" t="n">
         <v>41.76333445785253</v>
       </c>
     </row>
@@ -2125,22 +1827,18 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>4106902005044</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4106902005044</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>3.38</v>
+        <v>25.48</v>
       </c>
       <c r="D74" t="n">
-        <v>1.164</v>
+        <v>135.9626601409645</v>
       </c>
       <c r="E74" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="F74" t="n">
-        <v>135.9626601409645</v>
-      </c>
-      <c r="G74" t="n">
         <v>47.3070431330144</v>
       </c>
     </row>
@@ -2148,22 +1846,18 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>4106902005045</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4106902005045</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>1.914</v>
+        <v>16.706</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6899999999999999</v>
+        <v>119.1232239979251</v>
       </c>
       <c r="E75" t="n">
-        <v>16.706</v>
-      </c>
-      <c r="F75" t="n">
-        <v>119.1232239979251</v>
-      </c>
-      <c r="G75" t="n">
         <v>43.30591800264365</v>
       </c>
     </row>
@@ -2171,22 +1865,18 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>4106902005046</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>4106902005046</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>2.628</v>
+        <v>21.53</v>
       </c>
       <c r="D76" t="n">
-        <v>0.888</v>
+        <v>124.8972039501029</v>
       </c>
       <c r="E76" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="F76" t="n">
-        <v>124.8972039501029</v>
-      </c>
-      <c r="G76" t="n">
         <v>42.2032021424824</v>
       </c>
     </row>
@@ -2194,22 +1884,18 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>4106902005047</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>4106902005047</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>3.4</v>
+        <v>27.53</v>
       </c>
       <c r="D77" t="n">
-        <v>1.21</v>
+        <v>126.8804988004302</v>
       </c>
       <c r="E77" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="F77" t="n">
-        <v>126.8804988004302</v>
-      </c>
-      <c r="G77" t="n">
         <v>45.5548309624411</v>
       </c>
     </row>
@@ -2217,22 +1903,18 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>4106902005048</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>4106902005048</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>2.286</v>
+        <v>17.988</v>
       </c>
       <c r="D78" t="n">
-        <v>0.83</v>
+        <v>128.5988830020674</v>
       </c>
       <c r="E78" t="n">
-        <v>17.988</v>
-      </c>
-      <c r="F78" t="n">
-        <v>128.5988830020674</v>
-      </c>
-      <c r="G78" t="n">
         <v>46.77995968029128</v>
       </c>
     </row>
@@ -2240,22 +1922,18 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>4106902005049</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>4106902005049</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>2.276</v>
+        <v>19.524</v>
       </c>
       <c r="D79" t="n">
-        <v>0.824</v>
+        <v>119.2497557758047</v>
       </c>
       <c r="E79" t="n">
-        <v>19.524</v>
-      </c>
-      <c r="F79" t="n">
-        <v>119.2497557758047</v>
-      </c>
-      <c r="G79" t="n">
         <v>42.9397002664864</v>
       </c>
     </row>
@@ -2263,22 +1941,18 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>4106902005050</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>4106902005050</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>2.968</v>
+        <v>23.546</v>
       </c>
       <c r="D80" t="n">
-        <v>1.068</v>
+        <v>127.4792549478297</v>
       </c>
       <c r="E80" t="n">
-        <v>23.546</v>
-      </c>
-      <c r="F80" t="n">
-        <v>127.4792549478297</v>
-      </c>
-      <c r="G80" t="n">
         <v>45.71936546306672</v>
       </c>
     </row>
@@ -2286,22 +1960,18 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>4106902005051</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>4106902005051</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>2.29</v>
+        <v>19.074</v>
       </c>
       <c r="D81" t="n">
-        <v>0.778</v>
+        <v>121.6661571410735</v>
       </c>
       <c r="E81" t="n">
-        <v>19.074</v>
-      </c>
-      <c r="F81" t="n">
-        <v>121.6661571410735</v>
-      </c>
-      <c r="G81" t="n">
         <v>41.64232599339388</v>
       </c>
     </row>
@@ -2309,22 +1979,18 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>4106902005052</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>4106902005052</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>1.946</v>
+        <v>14.952</v>
       </c>
       <c r="D82" t="n">
-        <v>0.678</v>
+        <v>133.4530758065762</v>
       </c>
       <c r="E82" t="n">
-        <v>14.952</v>
-      </c>
-      <c r="F82" t="n">
-        <v>133.4530758065762</v>
-      </c>
-      <c r="G82" t="n">
         <v>46.72657000311128</v>
       </c>
     </row>
@@ -2332,22 +1998,18 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>4106902005053</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>4106902005053</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>1.346</v>
+        <v>11.556</v>
       </c>
       <c r="D83" t="n">
-        <v>0.51</v>
+        <v>122.4956015604622</v>
       </c>
       <c r="E83" t="n">
-        <v>11.556</v>
-      </c>
-      <c r="F83" t="n">
-        <v>122.4956015604622</v>
-      </c>
-      <c r="G83" t="n">
         <v>46.87387424237269</v>
       </c>
     </row>
@@ -2355,22 +2017,18 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>4106902005054</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>4106902005054</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>1.868</v>
+        <v>15.992</v>
       </c>
       <c r="D84" t="n">
-        <v>0.674</v>
+        <v>120.719773477496</v>
       </c>
       <c r="E84" t="n">
-        <v>15.992</v>
-      </c>
-      <c r="F84" t="n">
-        <v>120.719773477496</v>
-      </c>
-      <c r="G84" t="n">
         <v>43.90360462852183</v>
       </c>
     </row>
@@ -2378,22 +2036,18 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>4106902005055</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>4106902005055</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>1.854</v>
+        <v>14.586</v>
       </c>
       <c r="D85" t="n">
-        <v>0.646</v>
+        <v>132.2064725824721</v>
       </c>
       <c r="E85" t="n">
-        <v>14.586</v>
-      </c>
-      <c r="F85" t="n">
-        <v>132.2064725824721</v>
-      </c>
-      <c r="G85" t="n">
         <v>44.89043848233845</v>
       </c>
     </row>
@@ -2401,22 +2055,18 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>4107652003001</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>4107652003001</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>0.8594377510040161</v>
+        <v>7.493975903614458</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3052208835341365</v>
+        <v>118.9139424832195</v>
       </c>
       <c r="E86" t="n">
-        <v>7.493975903614458</v>
-      </c>
-      <c r="F86" t="n">
-        <v>118.9139424832195</v>
-      </c>
-      <c r="G86" t="n">
         <v>43.81800149872438</v>
       </c>
     </row>
@@ -2424,22 +2074,18 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>4107652003002</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>4107652003002</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>0.848</v>
+        <v>7.214</v>
       </c>
       <c r="D87" t="n">
-        <v>0.274</v>
+        <v>119.7975829725828</v>
       </c>
       <c r="E87" t="n">
-        <v>7.214</v>
-      </c>
-      <c r="F87" t="n">
-        <v>119.7975829725828</v>
-      </c>
-      <c r="G87" t="n">
         <v>39.449000999001</v>
       </c>
     </row>
@@ -2447,22 +2093,18 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>4107652003003</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>4107652003003</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>1.756</v>
+        <v>14.178</v>
       </c>
       <c r="D88" t="n">
-        <v>0.624</v>
+        <v>129.0847836441389</v>
       </c>
       <c r="E88" t="n">
-        <v>14.178</v>
-      </c>
-      <c r="F88" t="n">
-        <v>129.0847836441389</v>
-      </c>
-      <c r="G88" t="n">
         <v>46.28855977370915</v>
       </c>
     </row>
@@ -2470,22 +2112,18 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>4107652003004</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>4107652003004</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>1.792</v>
+        <v>14.622</v>
       </c>
       <c r="D89" t="n">
-        <v>0.646</v>
+        <v>122.7176886270129</v>
       </c>
       <c r="E89" t="n">
-        <v>14.622</v>
-      </c>
-      <c r="F89" t="n">
-        <v>122.7176886270129</v>
-      </c>
-      <c r="G89" t="n">
         <v>44.82991491966247</v>
       </c>
     </row>
@@ -2493,22 +2131,18 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>4111258001001</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>4111258001001</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>1.518</v>
+        <v>12.52</v>
       </c>
       <c r="D90" t="n">
-        <v>0.528</v>
+        <v>123.1924063093096</v>
       </c>
       <c r="E90" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F90" t="n">
-        <v>123.1924063093096</v>
-      </c>
-      <c r="G90" t="n">
         <v>42.95628243445579</v>
       </c>
     </row>
@@ -2516,22 +2150,18 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>4119152003001</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>4119152003001</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>0.886</v>
+        <v>7.578</v>
       </c>
       <c r="D91" t="n">
-        <v>0.316</v>
+        <v>126.320385170385</v>
       </c>
       <c r="E91" t="n">
-        <v>7.578</v>
-      </c>
-      <c r="F91" t="n">
-        <v>126.320385170385</v>
-      </c>
-      <c r="G91" t="n">
         <v>45.41711066711064</v>
       </c>
     </row>
@@ -2539,22 +2169,18 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>4119152003002</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>4119152003002</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>1.004</v>
+        <v>8.564</v>
       </c>
       <c r="D92" t="n">
-        <v>0.41</v>
+        <v>122.1945095753918</v>
       </c>
       <c r="E92" t="n">
-        <v>8.564</v>
-      </c>
-      <c r="F92" t="n">
-        <v>122.1945095753918</v>
-      </c>
-      <c r="G92" t="n">
         <v>48.96956540191831</v>
       </c>
     </row>
@@ -2562,22 +2188,18 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>4119152003003</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>4119152003003</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>1.99</v>
+        <v>16.396</v>
       </c>
       <c r="D93" t="n">
-        <v>0.764</v>
+        <v>124.1357708457918</v>
       </c>
       <c r="E93" t="n">
-        <v>16.396</v>
-      </c>
-      <c r="F93" t="n">
-        <v>124.1357708457918</v>
-      </c>
-      <c r="G93" t="n">
         <v>46.91182983795045</v>
       </c>
     </row>
@@ -2585,22 +2207,18 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>4119152003004</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>4119152003004</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>1.986</v>
+        <v>16.294</v>
       </c>
       <c r="D94" t="n">
-        <v>0.752</v>
+        <v>125.594998698451</v>
       </c>
       <c r="E94" t="n">
-        <v>16.294</v>
-      </c>
-      <c r="F94" t="n">
-        <v>125.594998698451</v>
-      </c>
-      <c r="G94" t="n">
         <v>47.56927846563608</v>
       </c>
     </row>
@@ -2608,22 +2226,18 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>4119152003005</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>4119152003005</t>
+        </is>
       </c>
       <c r="C95" t="n">
-        <v>1.936</v>
+        <v>15.378</v>
       </c>
       <c r="D95" t="n">
-        <v>0.704</v>
+        <v>128.5366009191598</v>
       </c>
       <c r="E95" t="n">
-        <v>15.378</v>
-      </c>
-      <c r="F95" t="n">
-        <v>128.5366009191598</v>
-      </c>
-      <c r="G95" t="n">
         <v>46.4290666816619</v>
       </c>
     </row>
@@ -2631,22 +2245,18 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>4119509003001</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>4119509003001</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>0.8737474949899799</v>
+        <v>7.697394789579159</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3006012024048096</v>
+        <v>125.7938287497405</v>
       </c>
       <c r="E96" t="n">
-        <v>7.697394789579159</v>
-      </c>
-      <c r="F96" t="n">
-        <v>125.7938287497405</v>
-      </c>
-      <c r="G96" t="n">
         <v>42.55135312249536</v>
       </c>
     </row>
@@ -2654,22 +2264,18 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>4119509003002</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>4119509003002</t>
+        </is>
       </c>
       <c r="C97" t="n">
-        <v>0.948</v>
+        <v>8.295999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.366</v>
+        <v>121.515402725929</v>
       </c>
       <c r="E97" t="n">
-        <v>8.295999999999999</v>
-      </c>
-      <c r="F97" t="n">
-        <v>121.515402725929</v>
-      </c>
-      <c r="G97" t="n">
         <v>48.1469131745447</v>
       </c>
     </row>
@@ -2677,22 +2283,18 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>4119509003003</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>4119509003003</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>1.79</v>
+        <v>15.232</v>
       </c>
       <c r="D98" t="n">
-        <v>0.644</v>
+        <v>120.1767010305319</v>
       </c>
       <c r="E98" t="n">
-        <v>15.232</v>
-      </c>
-      <c r="F98" t="n">
-        <v>120.1767010305319</v>
-      </c>
-      <c r="G98" t="n">
         <v>43.17884998535958</v>
       </c>
     </row>
@@ -2700,22 +2302,18 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>4119509003004</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>4119509003004</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>2.298</v>
+        <v>16.708</v>
       </c>
       <c r="D99" t="n">
-        <v>0.838</v>
+        <v>139.3078131317245</v>
       </c>
       <c r="E99" t="n">
-        <v>16.708</v>
-      </c>
-      <c r="F99" t="n">
-        <v>139.3078131317245</v>
-      </c>
-      <c r="G99" t="n">
         <v>50.53348082922388</v>
       </c>
     </row>
@@ -2723,22 +2321,18 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>4120804001001</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>4120804001001</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>1.266</v>
+        <v>10.57</v>
       </c>
       <c r="D100" t="n">
-        <v>0.478</v>
+        <v>125.7261370981958</v>
       </c>
       <c r="E100" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="F100" t="n">
-        <v>125.7261370981958</v>
-      </c>
-      <c r="G100" t="n">
         <v>45.85657659334131</v>
       </c>
     </row>
@@ -2746,22 +2340,18 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>4122206003001</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>4122206003001</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>0.928</v>
+        <v>7.288</v>
       </c>
       <c r="D101" t="n">
-        <v>0.304</v>
+        <v>135.042291042291</v>
       </c>
       <c r="E101" t="n">
-        <v>7.288</v>
-      </c>
-      <c r="F101" t="n">
-        <v>135.042291042291</v>
-      </c>
-      <c r="G101" t="n">
         <v>44.20117105117101</v>
       </c>
     </row>
@@ -2769,22 +2359,18 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>4122206003002</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4122206003002</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>1.112</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.42</v>
+        <v>127.9446377152258</v>
       </c>
       <c r="E102" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="F102" t="n">
-        <v>127.9446377152258</v>
-      </c>
-      <c r="G102" t="n">
         <v>48.74790568908213</v>
       </c>
     </row>
@@ -2792,22 +2378,18 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>4125506005001</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>4125506005001</t>
+        </is>
       </c>
       <c r="C103" t="n">
-        <v>7.45</v>
+        <v>59.166</v>
       </c>
       <c r="D103" t="n">
-        <v>2.722</v>
+        <v>126.8928809769405</v>
       </c>
       <c r="E103" t="n">
-        <v>59.166</v>
-      </c>
-      <c r="F103" t="n">
-        <v>126.8928809769405</v>
-      </c>
-      <c r="G103" t="n">
         <v>46.37342269010033</v>
       </c>
     </row>
@@ -2815,22 +2397,18 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>4125506005002</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4125506005002</t>
+        </is>
       </c>
       <c r="C104" t="n">
-        <v>4.054</v>
+        <v>32.234</v>
       </c>
       <c r="D104" t="n">
-        <v>1.494</v>
+        <v>127.7284269065814</v>
       </c>
       <c r="E104" t="n">
-        <v>32.234</v>
-      </c>
-      <c r="F104" t="n">
-        <v>127.7284269065814</v>
-      </c>
-      <c r="G104" t="n">
         <v>47.42602411752012</v>
       </c>
     </row>
@@ -2838,22 +2416,18 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>4125506005003</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>4125506005003</t>
+        </is>
       </c>
       <c r="C105" t="n">
-        <v>2.376</v>
+        <v>18.864</v>
       </c>
       <c r="D105" t="n">
-        <v>0.838</v>
+        <v>130.5902004149454</v>
       </c>
       <c r="E105" t="n">
-        <v>18.864</v>
-      </c>
-      <c r="F105" t="n">
-        <v>130.5902004149454</v>
-      </c>
-      <c r="G105" t="n">
         <v>46.21065607689989</v>
       </c>
     </row>
@@ -2861,22 +2435,18 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>4125506005004</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>4125506005004</t>
+        </is>
       </c>
       <c r="C106" t="n">
-        <v>1.786</v>
+        <v>14.63</v>
       </c>
       <c r="D106" t="n">
-        <v>0.616</v>
+        <v>124.7069589707192</v>
       </c>
       <c r="E106" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="F106" t="n">
-        <v>124.7069589707192</v>
-      </c>
-      <c r="G106" t="n">
         <v>43.0078041773963</v>
       </c>
     </row>
@@ -2884,22 +2454,18 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>4125506005005</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>4125506005005</t>
+        </is>
       </c>
       <c r="C107" t="n">
-        <v>1.126</v>
+        <v>9.76</v>
       </c>
       <c r="D107" t="n">
-        <v>0.442</v>
+        <v>122.3670210422532</v>
       </c>
       <c r="E107" t="n">
-        <v>9.76</v>
-      </c>
-      <c r="F107" t="n">
-        <v>122.3670210422532</v>
-      </c>
-      <c r="G107" t="n">
         <v>47.40685939447548</v>
       </c>
     </row>
@@ -2907,22 +2473,18 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
-        <v>4125506005006</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>4125506005006</t>
+        </is>
       </c>
       <c r="C108" t="n">
-        <v>1.192</v>
+        <v>8.805999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.414</v>
+        <v>148.906592135075</v>
       </c>
       <c r="E108" t="n">
-        <v>8.805999999999999</v>
-      </c>
-      <c r="F108" t="n">
-        <v>148.906592135075</v>
-      </c>
-      <c r="G108" t="n">
         <v>51.89771192859419</v>
       </c>
     </row>

--- a/VIDA2/data/CURITIBA.xlsx
+++ b/VIDA2/data/CURITIBA.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.384</v>
+        <v>8.537000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>136.2425451998981</v>
+        <v>123.6904336569003</v>
       </c>
       <c r="E2" t="n">
-        <v>50.57976190476187</v>
+        <v>46.69418330852149</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.651999999999999</v>
+        <v>9.573786893446725</v>
       </c>
       <c r="D3" t="n">
-        <v>124.4263692963383</v>
+        <v>126.6403785927091</v>
       </c>
       <c r="E3" t="n">
-        <v>49.221605028958</v>
+        <v>43.78206882531797</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.666</v>
+        <v>18.621</v>
       </c>
       <c r="D4" t="n">
-        <v>121.650806282569</v>
+        <v>127.6698624362507</v>
       </c>
       <c r="E4" t="n">
-        <v>43.99122571575585</v>
+        <v>45.80665266769979</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.688</v>
+        <v>18.967</v>
       </c>
       <c r="D5" t="n">
-        <v>123.5324637602596</v>
+        <v>125.2775854123971</v>
       </c>
       <c r="E5" t="n">
-        <v>44.12983428556197</v>
+        <v>45.02275479827504</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9.284000000000001</v>
+        <v>9.592499999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>116.639731544685</v>
+        <v>128.5324396943784</v>
       </c>
       <c r="E6" t="n">
-        <v>40.16682010799654</v>
+        <v>43.48102801696061</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.286</v>
+        <v>7.948</v>
       </c>
       <c r="D7" t="n">
-        <v>141.955364080364</v>
+        <v>134.8749845527709</v>
       </c>
       <c r="E7" t="n">
-        <v>54.13744033744028</v>
+        <v>47.47396047579866</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.593999999999999</v>
+        <v>8.599</v>
       </c>
       <c r="D8" t="n">
-        <v>142.2147269397269</v>
+        <v>131.4478520146861</v>
       </c>
       <c r="E8" t="n">
-        <v>52.9413725163725</v>
+        <v>48.29360574066448</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.198</v>
+        <v>10.03</v>
       </c>
       <c r="D9" t="n">
-        <v>130.4793811881273</v>
+        <v>130.6964694754511</v>
       </c>
       <c r="E9" t="n">
-        <v>40.6395626819001</v>
+        <v>44.66373357389969</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12.402</v>
+        <v>12.6565</v>
       </c>
       <c r="D10" t="n">
-        <v>136.5951874172169</v>
+        <v>128.0992493057187</v>
       </c>
       <c r="E10" t="n">
-        <v>50.23478698504943</v>
+        <v>44.74239054690904</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13.7</v>
+        <v>14.238</v>
       </c>
       <c r="D11" t="n">
-        <v>128.9180043039176</v>
+        <v>129.5957910799603</v>
       </c>
       <c r="E11" t="n">
-        <v>48.51225714430046</v>
+        <v>45.57739470165439</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.93</v>
+        <v>7.6465</v>
       </c>
       <c r="D12" t="n">
-        <v>136.6593692255456</v>
+        <v>132.8278526212349</v>
       </c>
       <c r="E12" t="n">
-        <v>43.95842490842489</v>
+        <v>45.92632041161448</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12.764</v>
+        <v>13.063</v>
       </c>
       <c r="D13" t="n">
-        <v>132.9382636040766</v>
+        <v>127.6069721235</v>
       </c>
       <c r="E13" t="n">
-        <v>46.3788692667916</v>
+        <v>46.53645002923976</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.024</v>
+        <v>6.997</v>
       </c>
       <c r="D14" t="n">
-        <v>116.610587125293</v>
+        <v>132.3956531621972</v>
       </c>
       <c r="E14" t="n">
-        <v>44.4093442505207</v>
+        <v>47.34864371739371</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>14.076</v>
+        <v>14.2105</v>
       </c>
       <c r="D15" t="n">
-        <v>134.7297051981836</v>
+        <v>138.0613426353511</v>
       </c>
       <c r="E15" t="n">
-        <v>49.7077299614431</v>
+        <v>49.19654402444982</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>8.76</v>
+        <v>8.81031031031031</v>
       </c>
       <c r="D16" t="n">
-        <v>137.5475390622449</v>
+        <v>127.6396326268444</v>
       </c>
       <c r="E16" t="n">
-        <v>48.72699963435255</v>
+        <v>44.59666853457697</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.634</v>
+        <v>14.724</v>
       </c>
       <c r="D17" t="n">
-        <v>134.6534019572954</v>
+        <v>131.884351930408</v>
       </c>
       <c r="E17" t="n">
-        <v>47.51889695172437</v>
+        <v>47.71573860510166</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>15.336</v>
+        <v>15.588</v>
       </c>
       <c r="D18" t="n">
-        <v>133.9028213128137</v>
+        <v>136.1629051980274</v>
       </c>
       <c r="E18" t="n">
-        <v>47.58578144454169</v>
+        <v>47.93580111625104</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13.2</v>
+        <v>13.0535</v>
       </c>
       <c r="D19" t="n">
-        <v>134.5820758895911</v>
+        <v>128.0778476614175</v>
       </c>
       <c r="E19" t="n">
-        <v>47.05519090397937</v>
+        <v>44.92384746312917</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11.006</v>
+        <v>11.06</v>
       </c>
       <c r="D20" t="n">
-        <v>134.749110822173</v>
+        <v>123.3411439787943</v>
       </c>
       <c r="E20" t="n">
-        <v>49.37863273338436</v>
+        <v>42.04400537038671</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16.608</v>
+        <v>16.7735</v>
       </c>
       <c r="D21" t="n">
-        <v>128.1493185613437</v>
+        <v>126.8779392382951</v>
       </c>
       <c r="E21" t="n">
-        <v>48.15142131480938</v>
+        <v>45.90761177563805</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7.925851703406813</v>
+        <v>7.787287287287287</v>
       </c>
       <c r="D22" t="n">
-        <v>133.7926101954158</v>
+        <v>130.2557597277236</v>
       </c>
       <c r="E22" t="n">
-        <v>47.9093551738842</v>
+        <v>46.66167181432053</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>11.896</v>
+        <v>12.241</v>
       </c>
       <c r="D23" t="n">
-        <v>131.2666536851521</v>
+        <v>127.3876374004947</v>
       </c>
       <c r="E23" t="n">
-        <v>47.23444670224853</v>
+        <v>46.86106199518681</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13.366</v>
+        <v>13.3145</v>
       </c>
       <c r="D24" t="n">
-        <v>129.884676476886</v>
+        <v>129.8187480743633</v>
       </c>
       <c r="E24" t="n">
-        <v>46.22862024717927</v>
+        <v>49.33067830360181</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7.998</v>
+        <v>8.088588588588589</v>
       </c>
       <c r="D25" t="n">
-        <v>128.2845127095126</v>
+        <v>126.0530426788594</v>
       </c>
       <c r="E25" t="n">
-        <v>47.32319902319899</v>
+        <v>45.39316018074185</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7.754</v>
+        <v>7.8492739108663</v>
       </c>
       <c r="D26" t="n">
-        <v>118.8158579982108</v>
+        <v>118.3011246643458</v>
       </c>
       <c r="E26" t="n">
-        <v>42.01876815994463</v>
+        <v>40.4321491492689</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.144</v>
+        <v>8.945499999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>138.1133670251317</v>
+        <v>125.8493322617353</v>
       </c>
       <c r="E27" t="n">
-        <v>45.51673489908781</v>
+        <v>43.49492104043184</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12.776</v>
+        <v>12.559</v>
       </c>
       <c r="D28" t="n">
-        <v>129.4707818123756</v>
+        <v>135.6588424734094</v>
       </c>
       <c r="E28" t="n">
-        <v>46.78720531835013</v>
+        <v>47.05797753559978</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7.528</v>
+        <v>7.385885885885886</v>
       </c>
       <c r="D29" t="n">
-        <v>126.2015257188631</v>
+        <v>125.8352531228347</v>
       </c>
       <c r="E29" t="n">
-        <v>48.58227470843567</v>
+        <v>42.29682076904298</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.284000000000001</v>
+        <v>9.247</v>
       </c>
       <c r="D30" t="n">
-        <v>123.3380157424275</v>
+        <v>128.0238762656329</v>
       </c>
       <c r="E30" t="n">
-        <v>45.57107500342793</v>
+        <v>45.29945279393799</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>14.148</v>
+        <v>14.064</v>
       </c>
       <c r="D31" t="n">
-        <v>137.1354788949303</v>
+        <v>127.0669994353511</v>
       </c>
       <c r="E31" t="n">
-        <v>47.93973305352361</v>
+        <v>45.44999064481527</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>22.912</v>
+        <v>22.83</v>
       </c>
       <c r="D32" t="n">
-        <v>116.6850756807458</v>
+        <v>122.2311941440744</v>
       </c>
       <c r="E32" t="n">
-        <v>43.18775979609661</v>
+        <v>45.02097936517502</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.688000000000001</v>
+        <v>9.746</v>
       </c>
       <c r="D33" t="n">
-        <v>137.6275778143425</v>
+        <v>128.3602957585928</v>
       </c>
       <c r="E33" t="n">
-        <v>48.84300911506793</v>
+        <v>44.30551866434208</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16.822</v>
+        <v>16.511</v>
       </c>
       <c r="D34" t="n">
-        <v>124.9037228870474</v>
+        <v>128.992772929337</v>
       </c>
       <c r="E34" t="n">
-        <v>45.12220637899637</v>
+        <v>46.9550957371354</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>13.112</v>
+        <v>13.211</v>
       </c>
       <c r="D35" t="n">
-        <v>118.7133958920336</v>
+        <v>116.3464483079024</v>
       </c>
       <c r="E35" t="n">
-        <v>44.02691967475248</v>
+        <v>42.92722456218568</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>14.366</v>
+        <v>14.289</v>
       </c>
       <c r="D36" t="n">
-        <v>116.7124939711579</v>
+        <v>120.4779047419244</v>
       </c>
       <c r="E36" t="n">
-        <v>43.26175591567163</v>
+        <v>42.06574490061762</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15.278</v>
+        <v>15.319</v>
       </c>
       <c r="D37" t="n">
-        <v>136.4395778144621</v>
+        <v>130.3051065354344</v>
       </c>
       <c r="E37" t="n">
-        <v>49.59092755046112</v>
+        <v>47.59278819554314</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17.972</v>
+        <v>17.603</v>
       </c>
       <c r="D38" t="n">
-        <v>123.7129275863596</v>
+        <v>123.970474632727</v>
       </c>
       <c r="E38" t="n">
-        <v>44.16645036745565</v>
+        <v>45.50814426810661</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20.698</v>
+        <v>20.332</v>
       </c>
       <c r="D39" t="n">
-        <v>127.6286328704128</v>
+        <v>123.5706793551399</v>
       </c>
       <c r="E39" t="n">
-        <v>46.01820493535242</v>
+        <v>44.43601275244667</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.182</v>
+        <v>14.2795</v>
       </c>
       <c r="D40" t="n">
-        <v>124.6062644843107</v>
+        <v>127.6746828045636</v>
       </c>
       <c r="E40" t="n">
-        <v>42.54639568079129</v>
+        <v>45.99830408023823</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>18.256</v>
+        <v>18.2315</v>
       </c>
       <c r="D41" t="n">
-        <v>126.94415596188</v>
+        <v>128.0888539668276</v>
       </c>
       <c r="E41" t="n">
-        <v>46.72822862815121</v>
+        <v>46.20332657161056</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15.714</v>
+        <v>15.922</v>
       </c>
       <c r="D42" t="n">
-        <v>126.8110710322925</v>
+        <v>127.0215331922972</v>
       </c>
       <c r="E42" t="n">
-        <v>46.92061752788084</v>
+        <v>45.98846615831152</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>13.33</v>
+        <v>13.613</v>
       </c>
       <c r="D43" t="n">
-        <v>127.1559636778172</v>
+        <v>126.6735721265348</v>
       </c>
       <c r="E43" t="n">
-        <v>42.53948603556891</v>
+        <v>46.03653299890304</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21.612</v>
+        <v>21.406</v>
       </c>
       <c r="D44" t="n">
-        <v>117.0377449557784</v>
+        <v>124.0496192615095</v>
       </c>
       <c r="E44" t="n">
-        <v>42.71516169477709</v>
+        <v>44.14633171985707</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25.82</v>
+        <v>25.779</v>
       </c>
       <c r="D45" t="n">
-        <v>133.1505215364776</v>
+        <v>124.624724035212</v>
       </c>
       <c r="E45" t="n">
-        <v>47.29611163730066</v>
+        <v>44.97207541127211</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>15.878</v>
+        <v>16.0845</v>
       </c>
       <c r="D46" t="n">
-        <v>127.8919842556301</v>
+        <v>130.0568638693371</v>
       </c>
       <c r="E46" t="n">
-        <v>44.04326906562872</v>
+        <v>47.37098620532508</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20.676</v>
+        <v>20.614</v>
       </c>
       <c r="D47" t="n">
-        <v>120.6793009199116</v>
+        <v>125.5013493732057</v>
       </c>
       <c r="E47" t="n">
-        <v>44.0316094563853</v>
+        <v>45.20925307618945</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>18.326</v>
+        <v>18.395</v>
       </c>
       <c r="D48" t="n">
-        <v>131.869098378421</v>
+        <v>130.5090492265295</v>
       </c>
       <c r="E48" t="n">
-        <v>46.68228362737149</v>
+        <v>46.56212105930328</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15.052</v>
+        <v>14.8135</v>
       </c>
       <c r="D49" t="n">
-        <v>116.0460648441809</v>
+        <v>125.6285211635368</v>
       </c>
       <c r="E49" t="n">
-        <v>44.27578013599347</v>
+        <v>45.27213332738582</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17.672</v>
+        <v>17.6775</v>
       </c>
       <c r="D50" t="n">
-        <v>129.4439154446955</v>
+        <v>129.0966484642352</v>
       </c>
       <c r="E50" t="n">
-        <v>48.31338953170289</v>
+        <v>46.24356517276283</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17.194</v>
+        <v>17.254</v>
       </c>
       <c r="D51" t="n">
-        <v>129.6064797743515</v>
+        <v>124.2953824763718</v>
       </c>
       <c r="E51" t="n">
-        <v>48.30142809411815</v>
+        <v>43.64809078761764</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>18.254</v>
+        <v>18.081</v>
       </c>
       <c r="D52" t="n">
-        <v>123.3898268471016</v>
+        <v>131.463845783054</v>
       </c>
       <c r="E52" t="n">
-        <v>44.03860943436794</v>
+        <v>48.12573293763988</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>19.682</v>
+        <v>19.6025</v>
       </c>
       <c r="D53" t="n">
-        <v>119.728085727454</v>
+        <v>123.3432798410127</v>
       </c>
       <c r="E53" t="n">
-        <v>41.52015873179232</v>
+        <v>44.41022786783262</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>19.784</v>
+        <v>19.9815</v>
       </c>
       <c r="D54" t="n">
-        <v>122.9729231622347</v>
+        <v>123.223093285237</v>
       </c>
       <c r="E54" t="n">
-        <v>43.65480417511159</v>
+        <v>44.3564283526104</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>18.126</v>
+        <v>18.03</v>
       </c>
       <c r="D55" t="n">
-        <v>134.5827069967627</v>
+        <v>132.1856547809047</v>
       </c>
       <c r="E55" t="n">
-        <v>44.61841116300921</v>
+        <v>47.41667232857553</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17.794</v>
+        <v>17.683</v>
       </c>
       <c r="D56" t="n">
-        <v>126.4390222552998</v>
+        <v>127.9827045575021</v>
       </c>
       <c r="E56" t="n">
-        <v>46.89204948910258</v>
+        <v>46.00840369051245</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>15.564</v>
+        <v>15.5675</v>
       </c>
       <c r="D57" t="n">
-        <v>127.3004046474009</v>
+        <v>128.2955479559623</v>
       </c>
       <c r="E57" t="n">
-        <v>43.97544317066995</v>
+        <v>45.68870444295778</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>16.132</v>
+        <v>16.1095</v>
       </c>
       <c r="D58" t="n">
-        <v>134.8703245472016</v>
+        <v>133.7900930028894</v>
       </c>
       <c r="E58" t="n">
-        <v>49.1236552599522</v>
+        <v>49.04649749024522</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>13.69</v>
+        <v>13.988</v>
       </c>
       <c r="D59" t="n">
-        <v>129.8381823740789</v>
+        <v>127.6715561570528</v>
       </c>
       <c r="E59" t="n">
-        <v>46.35214210454146</v>
+        <v>46.33831000904088</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>13.464</v>
+        <v>13.521</v>
       </c>
       <c r="D60" t="n">
-        <v>127.3348189139797</v>
+        <v>118.4429013534531</v>
       </c>
       <c r="E60" t="n">
-        <v>46.93689651728145</v>
+        <v>42.31642793517441</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>16.44</v>
+        <v>16.572</v>
       </c>
       <c r="D61" t="n">
-        <v>115.467539172962</v>
+        <v>120.0641509345489</v>
       </c>
       <c r="E61" t="n">
-        <v>43.67175904869758</v>
+        <v>42.87864049122777</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17.258</v>
+        <v>17.14</v>
       </c>
       <c r="D62" t="n">
-        <v>132.0020392057676</v>
+        <v>132.4375522988144</v>
       </c>
       <c r="E62" t="n">
-        <v>49.41756531747111</v>
+        <v>48.35376148126623</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15.582</v>
+        <v>15.498</v>
       </c>
       <c r="D63" t="n">
-        <v>136.1095362558113</v>
+        <v>125.3527189749997</v>
       </c>
       <c r="E63" t="n">
-        <v>46.41735751777957</v>
+        <v>46.245592646337</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>14.476</v>
+        <v>14.3955</v>
       </c>
       <c r="D64" t="n">
-        <v>130.4819898275747</v>
+        <v>119.4346350036247</v>
       </c>
       <c r="E64" t="n">
-        <v>43.68757953465246</v>
+        <v>42.66829729688981</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>13.978</v>
+        <v>13.7055</v>
       </c>
       <c r="D65" t="n">
-        <v>121.1658202107342</v>
+        <v>121.0554571895327</v>
       </c>
       <c r="E65" t="n">
-        <v>42.79428166440282</v>
+        <v>43.97946745382679</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>24.142</v>
+        <v>24.097</v>
       </c>
       <c r="D66" t="n">
-        <v>118.5570118910537</v>
+        <v>122.5538535442834</v>
       </c>
       <c r="E66" t="n">
-        <v>40.43920882846833</v>
+        <v>45.09787569316997</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>16.214</v>
+        <v>16.1905</v>
       </c>
       <c r="D67" t="n">
-        <v>138.9227182577256</v>
+        <v>126.1849095866942</v>
       </c>
       <c r="E67" t="n">
-        <v>52.36993729462516</v>
+        <v>44.62065702912776</v>
       </c>
     </row>
     <row r="68">
@@ -1719,13 +1719,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>15.494</v>
+        <v>15.4405</v>
       </c>
       <c r="D68" t="n">
-        <v>122.1466816379452</v>
+        <v>126.4837199001829</v>
       </c>
       <c r="E68" t="n">
-        <v>45.38146379849572</v>
+        <v>44.95800095870442</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>24.626</v>
+        <v>24.459</v>
       </c>
       <c r="D69" t="n">
-        <v>128.1947540461381</v>
+        <v>132.2122754163459</v>
       </c>
       <c r="E69" t="n">
-        <v>45.55202310756646</v>
+        <v>46.48243699278575</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>20.132</v>
+        <v>20.006</v>
       </c>
       <c r="D70" t="n">
-        <v>131.7908123223847</v>
+        <v>126.3323286239412</v>
       </c>
       <c r="E70" t="n">
-        <v>47.70979605955186</v>
+        <v>43.57670243593281</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>28.354</v>
+        <v>28.4985</v>
       </c>
       <c r="D71" t="n">
-        <v>128.3160368638264</v>
+        <v>124.7543982278946</v>
       </c>
       <c r="E71" t="n">
-        <v>44.93858103819015</v>
+        <v>46.41915113152899</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>16.144</v>
+        <v>16.112</v>
       </c>
       <c r="D72" t="n">
-        <v>127.3649684513308</v>
+        <v>124.4226447252193</v>
       </c>
       <c r="E72" t="n">
-        <v>45.44708053429431</v>
+        <v>44.33834365676881</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15.582</v>
+        <v>15.692</v>
       </c>
       <c r="D73" t="n">
-        <v>118.0567967260301</v>
+        <v>126.298193424552</v>
       </c>
       <c r="E73" t="n">
-        <v>41.76333445785253</v>
+        <v>45.42493887200736</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25.48</v>
+        <v>25.3755</v>
       </c>
       <c r="D74" t="n">
-        <v>135.9626601409645</v>
+        <v>131.4124998508072</v>
       </c>
       <c r="E74" t="n">
-        <v>47.3070431330144</v>
+        <v>46.6407458198841</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>16.706</v>
+        <v>16.488</v>
       </c>
       <c r="D75" t="n">
-        <v>119.1232239979251</v>
+        <v>122.6002673339252</v>
       </c>
       <c r="E75" t="n">
-        <v>43.30591800264365</v>
+        <v>43.57914512300765</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>21.53</v>
+        <v>21.32</v>
       </c>
       <c r="D76" t="n">
-        <v>124.8972039501029</v>
+        <v>126.775923303833</v>
       </c>
       <c r="E76" t="n">
-        <v>42.2032021424824</v>
+        <v>45.67464340831365</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>27.53</v>
+        <v>27.413</v>
       </c>
       <c r="D77" t="n">
-        <v>126.8804988004302</v>
+        <v>132.9808508595428</v>
       </c>
       <c r="E77" t="n">
-        <v>45.5548309624411</v>
+        <v>47.66082864227962</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17.988</v>
+        <v>17.998</v>
       </c>
       <c r="D78" t="n">
-        <v>128.5988830020674</v>
+        <v>128.8582369142657</v>
       </c>
       <c r="E78" t="n">
-        <v>46.77995968029128</v>
+        <v>46.84627617438493</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>19.524</v>
+        <v>19.554</v>
       </c>
       <c r="D79" t="n">
-        <v>119.2497557758047</v>
+        <v>129.8010482334329</v>
       </c>
       <c r="E79" t="n">
-        <v>42.9397002664864</v>
+        <v>46.95654079347083</v>
       </c>
     </row>
     <row r="80">
@@ -1947,13 +1947,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>23.546</v>
+        <v>23.6575</v>
       </c>
       <c r="D80" t="n">
-        <v>127.4792549478297</v>
+        <v>133.8291854420443</v>
       </c>
       <c r="E80" t="n">
-        <v>45.71936546306672</v>
+        <v>47.27727228486828</v>
       </c>
     </row>
     <row r="81">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>19.074</v>
+        <v>19.059</v>
       </c>
       <c r="D81" t="n">
-        <v>121.6661571410735</v>
+        <v>128.1313228296638</v>
       </c>
       <c r="E81" t="n">
-        <v>41.64232599339388</v>
+        <v>44.90567424292963</v>
       </c>
     </row>
     <row r="82">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>14.952</v>
+        <v>14.965</v>
       </c>
       <c r="D82" t="n">
-        <v>133.4530758065762</v>
+        <v>133.2053295915201</v>
       </c>
       <c r="E82" t="n">
-        <v>46.72657000311128</v>
+        <v>45.82903487840805</v>
       </c>
     </row>
     <row r="83">
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>11.556</v>
+        <v>11.6785</v>
       </c>
       <c r="D83" t="n">
-        <v>122.4956015604622</v>
+        <v>124.4260171969335</v>
       </c>
       <c r="E83" t="n">
-        <v>46.87387424237269</v>
+        <v>44.29145337044303</v>
       </c>
     </row>
     <row r="84">
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>15.992</v>
+        <v>15.7835</v>
       </c>
       <c r="D84" t="n">
-        <v>120.719773477496</v>
+        <v>128.545689483176</v>
       </c>
       <c r="E84" t="n">
-        <v>43.90360462852183</v>
+        <v>46.50793449684769</v>
       </c>
     </row>
     <row r="85">
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>14.586</v>
+        <v>14.6125</v>
       </c>
       <c r="D85" t="n">
-        <v>132.2064725824721</v>
+        <v>122.7017575824599</v>
       </c>
       <c r="E85" t="n">
-        <v>44.89043848233845</v>
+        <v>43.67490979929856</v>
       </c>
     </row>
     <row r="86">
@@ -2061,13 +2061,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.493975903614458</v>
+        <v>7.735</v>
       </c>
       <c r="D86" t="n">
-        <v>118.9139424832195</v>
+        <v>121.1334488224191</v>
       </c>
       <c r="E86" t="n">
-        <v>43.81800149872438</v>
+        <v>44.35590075773895</v>
       </c>
     </row>
     <row r="87">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7.214</v>
+        <v>7.3105</v>
       </c>
       <c r="D87" t="n">
-        <v>119.7975829725828</v>
+        <v>121.1398950314389</v>
       </c>
       <c r="E87" t="n">
-        <v>39.449000999001</v>
+        <v>42.51150169275165</v>
       </c>
     </row>
     <row r="88">
@@ -2099,13 +2099,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>14.178</v>
+        <v>14.2325</v>
       </c>
       <c r="D88" t="n">
-        <v>129.0847836441389</v>
+        <v>125.1462171164598</v>
       </c>
       <c r="E88" t="n">
-        <v>46.28855977370915</v>
+        <v>42.34177083056756</v>
       </c>
     </row>
     <row r="89">
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>14.622</v>
+        <v>14.569</v>
       </c>
       <c r="D89" t="n">
-        <v>122.7176886270129</v>
+        <v>123.7864260171803</v>
       </c>
       <c r="E89" t="n">
-        <v>44.82991491966247</v>
+        <v>45.39350498779381</v>
       </c>
     </row>
     <row r="90">
@@ -2137,13 +2137,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>12.52</v>
+        <v>12.5185</v>
       </c>
       <c r="D90" t="n">
-        <v>123.1924063093096</v>
+        <v>125.9613090485773</v>
       </c>
       <c r="E90" t="n">
-        <v>42.95628243445579</v>
+        <v>44.55729252883558</v>
       </c>
     </row>
     <row r="91">
@@ -2156,13 +2156,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.578</v>
+        <v>7.597798899449725</v>
       </c>
       <c r="D91" t="n">
-        <v>126.320385170385</v>
+        <v>129.1554164446491</v>
       </c>
       <c r="E91" t="n">
-        <v>45.41711066711064</v>
+        <v>46.59007200903147</v>
       </c>
     </row>
     <row r="92">
@@ -2175,13 +2175,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8.564</v>
+        <v>8.326000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>122.1945095753918</v>
+        <v>131.1627491166381</v>
       </c>
       <c r="E92" t="n">
-        <v>48.96956540191831</v>
+        <v>47.51321558343616</v>
       </c>
     </row>
     <row r="93">
@@ -2194,13 +2194,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16.396</v>
+        <v>16.492</v>
       </c>
       <c r="D93" t="n">
-        <v>124.1357708457918</v>
+        <v>128.1567914040261</v>
       </c>
       <c r="E93" t="n">
-        <v>46.91182983795045</v>
+        <v>46.84015641339202</v>
       </c>
     </row>
     <row r="94">
@@ -2213,13 +2213,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>16.294</v>
+        <v>15.949</v>
       </c>
       <c r="D94" t="n">
-        <v>125.594998698451</v>
+        <v>129.3725351105589</v>
       </c>
       <c r="E94" t="n">
-        <v>47.56927846563608</v>
+        <v>46.95576154632841</v>
       </c>
     </row>
     <row r="95">
@@ -2232,13 +2232,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>15.378</v>
+        <v>15.5815</v>
       </c>
       <c r="D95" t="n">
-        <v>128.5366009191598</v>
+        <v>133.7178852589115</v>
       </c>
       <c r="E95" t="n">
-        <v>46.4290666816619</v>
+        <v>47.58067489936841</v>
       </c>
     </row>
     <row r="96">
@@ -2251,13 +2251,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.697394789579159</v>
+        <v>7.709564346519779</v>
       </c>
       <c r="D96" t="n">
-        <v>125.7938287497405</v>
+        <v>127.5600687192338</v>
       </c>
       <c r="E96" t="n">
-        <v>42.55135312249536</v>
+        <v>43.51545494509935</v>
       </c>
     </row>
     <row r="97">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>8.295999999999999</v>
+        <v>8.417</v>
       </c>
       <c r="D97" t="n">
-        <v>121.515402725929</v>
+        <v>133.0702623249642</v>
       </c>
       <c r="E97" t="n">
-        <v>48.1469131745447</v>
+        <v>46.53184993111457</v>
       </c>
     </row>
     <row r="98">
@@ -2289,13 +2289,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>15.232</v>
+        <v>15.2115</v>
       </c>
       <c r="D98" t="n">
-        <v>120.1767010305319</v>
+        <v>124.6605553183353</v>
       </c>
       <c r="E98" t="n">
-        <v>43.17884998535958</v>
+        <v>43.93630442394674</v>
       </c>
     </row>
     <row r="99">
@@ -2308,13 +2308,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>16.708</v>
+        <v>16.545</v>
       </c>
       <c r="D99" t="n">
-        <v>139.3078131317245</v>
+        <v>148.5817324345033</v>
       </c>
       <c r="E99" t="n">
-        <v>50.53348082922388</v>
+        <v>53.96268980683521</v>
       </c>
     </row>
     <row r="100">
@@ -2330,10 +2330,10 @@
         <v>10.57</v>
       </c>
       <c r="D100" t="n">
-        <v>125.7261370981958</v>
+        <v>136.4137440294669</v>
       </c>
       <c r="E100" t="n">
-        <v>45.85657659334131</v>
+        <v>47.71871018054038</v>
       </c>
     </row>
     <row r="101">
@@ -2346,13 +2346,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7.288</v>
+        <v>7.397397397397397</v>
       </c>
       <c r="D101" t="n">
-        <v>135.042291042291</v>
+        <v>123.8244670842708</v>
       </c>
       <c r="E101" t="n">
-        <v>44.20117105117101</v>
+        <v>44.24673056209007</v>
       </c>
     </row>
     <row r="102">
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>9.039999999999999</v>
+        <v>8.59879939969985</v>
       </c>
       <c r="D102" t="n">
-        <v>127.9446377152258</v>
+        <v>142.7097457905429</v>
       </c>
       <c r="E102" t="n">
-        <v>48.74790568908213</v>
+        <v>51.26659567438386</v>
       </c>
     </row>
     <row r="103">
@@ -2384,13 +2384,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>59.166</v>
+        <v>58.715</v>
       </c>
       <c r="D103" t="n">
-        <v>126.8928809769405</v>
+        <v>129.7230134395627</v>
       </c>
       <c r="E103" t="n">
-        <v>46.37342269010033</v>
+        <v>46.6435766613292</v>
       </c>
     </row>
     <row r="104">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>32.234</v>
+        <v>32.152</v>
       </c>
       <c r="D104" t="n">
-        <v>127.7284269065814</v>
+        <v>126.4378422872906</v>
       </c>
       <c r="E104" t="n">
-        <v>47.42602411752012</v>
+        <v>45.68077574959361</v>
       </c>
     </row>
     <row r="105">
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>18.864</v>
+        <v>18.5055</v>
       </c>
       <c r="D105" t="n">
-        <v>130.5902004149454</v>
+        <v>123.4031014611236</v>
       </c>
       <c r="E105" t="n">
-        <v>46.21065607689989</v>
+        <v>42.57667952852181</v>
       </c>
     </row>
     <row r="106">
@@ -2441,13 +2441,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>14.63</v>
+        <v>14.6035</v>
       </c>
       <c r="D106" t="n">
-        <v>124.7069589707192</v>
+        <v>126.0004514974898</v>
       </c>
       <c r="E106" t="n">
-        <v>43.0078041773963</v>
+        <v>44.80117421125262</v>
       </c>
     </row>
     <row r="107">
@@ -2460,13 +2460,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>9.76</v>
+        <v>9.703703703703704</v>
       </c>
       <c r="D107" t="n">
-        <v>122.3670210422532</v>
+        <v>130.3507570621429</v>
       </c>
       <c r="E107" t="n">
-        <v>47.40685939447548</v>
+        <v>47.8451208520867</v>
       </c>
     </row>
     <row r="108">
@@ -2479,13 +2479,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>8.805999999999999</v>
+        <v>8.787000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>148.906592135075</v>
+        <v>136.6571842781401</v>
       </c>
       <c r="E108" t="n">
-        <v>51.89771192859419</v>
+        <v>48.63926473852938</v>
       </c>
     </row>
   </sheetData>
